--- a/Races.xlsx
+++ b/Races.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>unique_roles</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>compliance</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mod</t>
         </is>
@@ -471,15 +476,20 @@
           <t>tackle,moo</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dairy Cow,Milk Mage</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>80</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>cowgirl</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,15 +502,20 @@
           <t>punch,breathe</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ranger</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>100</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>human</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -513,15 +528,20 @@
           <t>charge,headbutt</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mule,Siege,Wool Mage</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>60</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>ram</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,15 +554,20 @@
           <t>bite,slash</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ice Mage,Lancer,Love Mage</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>70</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>ratkin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -555,15 +580,20 @@
           <t>vine_whip,ingrain</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vine Mage,Wood Mage</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>alraune</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -576,15 +606,20 @@
           <t>leech_life,hypnoburst</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hypnomancer,Lancer</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -597,15 +632,20 @@
           <t>poison_sting,gather_speed</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ice Mage</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>50</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>bee</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -618,15 +658,20 @@
           <t>hopback,kick</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Assassin,Waitress</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>bunny</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -639,15 +684,20 @@
           <t>webshot,slash</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Lancer,Silk Mage</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>20</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>arachnid</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -660,15 +710,20 @@
           <t>backstomp,gather_speed</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Hunter,Lancer,Mule</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>centaur</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -681,15 +736,20 @@
           <t>breathe,focus</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ranger,Sharpshooter</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>-30</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>elf</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -702,15 +762,20 @@
           <t>wildshape,slash</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Feral,Pet,Rogue</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>30</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>fox</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -723,15 +788,20 @@
           <t>talonstrike,lullaby</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Songmage</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>20</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>harpy</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -744,15 +814,20 @@
           <t>tackle,punch</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Barbarian</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>30</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>orc</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -765,15 +840,20 @@
           <t>bite,wildshape</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Druid,Feral,Pet</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>20</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>wolf</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -786,15 +866,20 @@
           <t>slash,bite</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Hunter,Rogue</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>-20</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>catgirl</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -807,15 +892,20 @@
           <t>claw,harden</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Surgeon</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>crab</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -828,15 +918,20 @@
           <t>vine_whip,pheromones</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Vine Mage,Wood Mage</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>50</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>dryad</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -849,15 +944,20 @@
           <t>zap,poison_sting</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Electro Mage</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>jellyfish</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -870,15 +970,20 @@
           <t>harden,slime_throw</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Arousal Mage,Latex Mage,Metal Mage,Milk Mage</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>slime</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -891,15 +996,20 @@
           <t>gaze,harden</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Sculptor</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>-50</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>lamia</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -912,15 +1022,20 @@
           <t>harden,poison_sting</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Surgeon</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>-50</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>scorpion</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -933,15 +1048,20 @@
           <t>leech_life,drain_kiss</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Drain Mage,Love Mage</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>-100</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>succubus</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -954,15 +1074,20 @@
           <t>drink_off,headbutt</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Heavy Warrior,Shaved,Smith</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>25</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>dwarf</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -977,15 +1102,20 @@
           <t>pixy_dust,kick</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Leaf Dancer,Pocket Healer,Prankster</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>fairy</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1000,15 +1130,20 @@
           <t>panty_slap,bite</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Breeder,Improviser,Scoundrel</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>10</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>goblin</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1023,15 +1158,20 @@
           <t>shin_kick,punch</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ambusher,Opportunist,Underling</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>40</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>halfling</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>1</v>
       </c>
     </row>
